--- a/applications/travel_model_lu_inputs/2015/Employment/2012-2016 CTPP Places to Superdistrict Equivalency.xlsx
+++ b/applications/travel_model_lu_inputs/2015/Employment/2012-2016 CTPP Places to Superdistrict Equivalency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="467">
   <si>
     <t>0600135</t>
   </si>
@@ -1420,6 +1420,12 @@
   </si>
   <si>
     <t>CTPP 2012-2016 data was used for these calculations.</t>
+  </si>
+  <si>
+    <t>The TAZ Incommute Equivalence tab is the TAZ to "composite superdistrict" group, the aggregated superdistricts that made the most sense for grouping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Comp_SD Incommute Equivalence tab represents the respective shares of the total incommuters by composite superdistrict grouping. For example, the group of TAZs within the composite superdistrict group 8_9_10_11_12_13 account for 32.5 percent of all incommuters. </t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1805,6 +1811,16 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -1816,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7332,8 +7348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7354,15 +7370,15 @@
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B2">
-        <v>9.7341947867217352E-2</v>
+      <c r="B2" s="4">
+        <v>9.7341947867217393E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>3.7828543355440926E-2</v>
       </c>
     </row>
@@ -7370,7 +7386,7 @@
       <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2.6134941988997618E-2</v>
       </c>
     </row>
@@ -7378,7 +7394,7 @@
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>0.32545000656943895</v>
       </c>
     </row>
@@ -7386,7 +7402,7 @@
       <c r="A6" s="1">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>4.4220893100946568E-2</v>
       </c>
     </row>
@@ -7394,7 +7410,7 @@
       <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.11974087847680417</v>
       </c>
     </row>
@@ -7402,7 +7418,7 @@
       <c r="A8" s="1">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>3.9016754925651091E-2</v>
       </c>
     </row>
@@ -7410,7 +7426,7 @@
       <c r="A9" s="1">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>4.1793056959892147E-2</v>
       </c>
     </row>
@@ -7418,7 +7434,7 @@
       <c r="A10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>6.5734377588501772E-2</v>
       </c>
     </row>
@@ -7426,7 +7442,7 @@
       <c r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1.1333710362004651E-2</v>
       </c>
     </row>
@@ -7434,7 +7450,7 @@
       <c r="A12" s="1">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>1.6749213095462519E-2</v>
       </c>
     </row>
@@ -7442,7 +7458,7 @@
       <c r="A13" s="1">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>1.5521013635870278E-2</v>
       </c>
     </row>
@@ -7450,7 +7466,7 @@
       <c r="A14" s="1">
         <v>23</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>2.0113908359182649E-2</v>
       </c>
     </row>
@@ -7458,7 +7474,7 @@
       <c r="A15" s="1">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1.4481328511936386E-2</v>
       </c>
     </row>
@@ -7466,7 +7482,7 @@
       <c r="A16" s="1">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>1.105379513633014E-2</v>
       </c>
     </row>
@@ -7474,7 +7490,7 @@
       <c r="A17" s="1">
         <v>26</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>6.5363061472811096E-2</v>
       </c>
     </row>
@@ -7482,7 +7498,7 @@
       <c r="A18" s="1">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>7.8604765413903214E-3</v>
       </c>
     </row>
@@ -7490,7 +7506,7 @@
       <c r="A19" s="1">
         <v>28</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>5.7753937378965227E-3</v>
       </c>
     </row>
@@ -7498,7 +7514,7 @@
       <c r="A20" s="1">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>6.7979411949523859E-3</v>
       </c>
     </row>
@@ -7506,7 +7522,7 @@
       <c r="A21" s="1">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1.3898647838083323E-2</v>
       </c>
     </row>
@@ -7514,7 +7530,7 @@
       <c r="A22" s="1">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>2.7877271454930792E-3</v>
       </c>
     </row>
@@ -7522,7 +7538,7 @@
       <c r="A23" s="1">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>1.7708922440632265E-3</v>
       </c>
     </row>
@@ -7530,7 +7546,7 @@
       <c r="A24" s="1">
         <v>33</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>6.3866371898796369E-3</v>
       </c>
     </row>
@@ -7538,12 +7554,13 @@
       <c r="A25" s="1">
         <v>34</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>2.8448527017531835E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7551,8 +7568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1455"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="G347" sqref="G347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23569,5 +23586,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/applications/travel_model_lu_inputs/2015/Employment/2012-2016 CTPP Places to Superdistrict Equivalency.xlsx
+++ b/applications/travel_model_lu_inputs/2015/Employment/2012-2016 CTPP Places to Superdistrict Equivalency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="468">
   <si>
     <t>0600135</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Comp_SD Incommute Equivalence tab represents the respective shares of the total incommuters by composite superdistrict grouping. For example, the group of TAZs within the composite superdistrict group 8_9_10_11_12_13 account for 32.5 percent of all incommuters. </t>
+  </si>
+  <si>
+    <t>Share_Incommute</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -7348,8 +7351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7363,7 +7366,7 @@
         <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
